--- a/output/fit_clients/fit_round_500.xlsx
+++ b/output/fit_clients/fit_round_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1567461264.988702</v>
+        <v>2036612889.085322</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08314058721815999</v>
+        <v>0.08844857403308261</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03042838737796466</v>
+        <v>0.03212786800914234</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>783730570.0385228</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2375906613.780124</v>
+        <v>2226548096.20976</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1644734014550503</v>
+        <v>0.1468633241680092</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03816765299479864</v>
+        <v>0.03836582005140809</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1187953405.195373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3391118868.602168</v>
+        <v>3493814754.087573</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1642100194146336</v>
+        <v>0.1367748339952213</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03802903283816422</v>
+        <v>0.03021424121094369</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>181</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1695559405.381642</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3474860792.026588</v>
+        <v>3211616690.995124</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08964557334118348</v>
+        <v>0.07570314148933639</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03327136558687652</v>
+        <v>0.03866716146742662</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>185</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1737430434.477841</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2328816160.88976</v>
+        <v>1824109800.267291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09641929417803646</v>
+        <v>0.09028464971227766</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04408311939998749</v>
+        <v>0.04718362503906678</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1164408074.479401</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2711290233.350005</v>
+        <v>2004533963.238774</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07783657743593554</v>
+        <v>0.09398033146644912</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03974155372357892</v>
+        <v>0.0420197369050574</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>158</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1355645109.392262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3875678249.84277</v>
+        <v>3512320421.651727</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2013089680038982</v>
+        <v>0.177581255943188</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02140354889158925</v>
+        <v>0.03181990436555029</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>160</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1937839271.979544</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2262604354.937426</v>
+        <v>1496827128.05312</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1729621671806845</v>
+        <v>0.1964764923966187</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03556370736160694</v>
+        <v>0.03512036392980523</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1131302167.676914</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4057812251.540205</v>
+        <v>5259699745.712213</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1310681981359017</v>
+        <v>0.173466246543831</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04576768085312712</v>
+        <v>0.0427588881524141</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>211</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2028906152.145622</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2611979565.059312</v>
+        <v>2770239847.819528</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1901761431475502</v>
+        <v>0.153872688033177</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03740430430583393</v>
+        <v>0.0453252811535696</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>207</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1305989698.486598</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3320143804.04707</v>
+        <v>2482532503.952109</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1954414410349566</v>
+        <v>0.1747211672080358</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04400263127991545</v>
+        <v>0.0437868644578511</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>170</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1660071949.379252</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3664385043.073281</v>
+        <v>4956520400.347637</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09273454955864407</v>
+        <v>0.06521490408518475</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02239576328635621</v>
+        <v>0.02033792008190746</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>168</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1832192593.535545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3805422589.787886</v>
+        <v>3777615533.113922</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1207980136787093</v>
+        <v>0.1574740200947709</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0381888293312705</v>
+        <v>0.04394825955714921</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>161</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1902711271.030838</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1172548807.640447</v>
+        <v>1340003253.112244</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0760978886521507</v>
+        <v>0.08339984775258091</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04450169546170934</v>
+        <v>0.03774303284743358</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>586274415.1095028</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2743581561.268904</v>
+        <v>2062611396.56269</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09898038066105432</v>
+        <v>0.0752173365542223</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03162039684701794</v>
+        <v>0.0461227322156296</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>102</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1371790789.726917</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4448300233.71205</v>
+        <v>4537693364.369197</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1687640932244386</v>
+        <v>0.1639386372108231</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03950847560691251</v>
+        <v>0.04500036918012028</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>149</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2224150129.341158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3050650308.865392</v>
+        <v>3161507757.563658</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1790313942855987</v>
+        <v>0.1275376623116689</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02134662302048994</v>
+        <v>0.02982479411573852</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>165</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1525325181.023854</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1195298261.834618</v>
+        <v>1369044690.268794</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1784863957804349</v>
+        <v>0.1843499169012145</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01671742683430022</v>
+        <v>0.0229728502405678</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>597649207.7549926</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1901899016.728245</v>
+        <v>2779328840.833985</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1049663742146751</v>
+        <v>0.15392637329066</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02022415594589596</v>
+        <v>0.03153562086650444</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>71</v>
-      </c>
-      <c r="J20" t="n">
-        <v>950949545.1926793</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1750268218.94651</v>
+        <v>2261931753.158942</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07394086865194116</v>
+        <v>0.09377799478008107</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03765394870095731</v>
+        <v>0.03051860990816154</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>875134169.3466414</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3402937199.341743</v>
+        <v>3652714912.001915</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09661464272655362</v>
+        <v>0.1348884595843545</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05413479004940048</v>
+        <v>0.04829193534963392</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>138</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1701468637.09797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1418551849.445327</v>
+        <v>1203511894.155721</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1733739954595542</v>
+        <v>0.182455777400639</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03905525424094772</v>
+        <v>0.0440211351547331</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>709275924.4017659</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3941518877.057673</v>
+        <v>3110861624.926374</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09230381608641054</v>
+        <v>0.09714597691025988</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0330929989305154</v>
+        <v>0.03578688276425132</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>147</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1970759410.479129</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1136146557.219933</v>
+        <v>1259946570.000432</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07814058704583773</v>
+        <v>0.08551564171260816</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0223638115659953</v>
+        <v>0.02730328707003106</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>568073311.2859232</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1354795317.702306</v>
+        <v>879279344.5577668</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1038662838120487</v>
+        <v>0.1153234080453527</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02719608603450734</v>
+        <v>0.03733812272003616</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>677397717.7780839</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3788282819.453974</v>
+        <v>4370869907.344492</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1341433593445737</v>
+        <v>0.1085575381117808</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02597243257017955</v>
+        <v>0.01667355540272394</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1894141430.440443</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3176596612.04234</v>
+        <v>2468076802.857714</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09710887610308321</v>
+        <v>0.09433819315359653</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03803809096883538</v>
+        <v>0.04997508313646454</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>165</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1588298332.588205</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4978011038.646911</v>
+        <v>4886160986.833427</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1080836859459895</v>
+        <v>0.0971452290771261</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03734891332076536</v>
+        <v>0.02898534460898736</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>221</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2489005468.43597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1974643013.362616</v>
+        <v>2284150865.202161</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08576152199419076</v>
+        <v>0.09280285558126139</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0329663277591466</v>
+        <v>0.03196524654188867</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>987321541.2604612</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1504085822.937004</v>
+        <v>989328441.0100052</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08320384821414033</v>
+        <v>0.1110146411647816</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04513159665453101</v>
+        <v>0.04528331407993166</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>752042791.3796664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1475806900.02512</v>
+        <v>1155664981.174516</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08182359946473916</v>
+        <v>0.1016679170599805</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02546449970689375</v>
+        <v>0.03713543958964752</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>737903513.3866774</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2200502214.346575</v>
+        <v>3072021319.893421</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1538637607781067</v>
+        <v>0.1908420528528971</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05438203743118092</v>
+        <v>0.05321919865942296</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>154</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1100251170.900722</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1545735481.352623</v>
+        <v>1322579360.301254</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09160155620803709</v>
+        <v>0.1135473270692451</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01953064570556562</v>
+        <v>0.02497894632024716</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>772867689.0608038</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>947122703.4519097</v>
+        <v>1342189325.587192</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0894766857507389</v>
+        <v>0.09776303153166989</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03831493936834444</v>
+        <v>0.04054417854314639</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>473561381.9114556</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2427454946.129983</v>
+        <v>2094677351.222787</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1583322637785529</v>
+        <v>0.1244546827765928</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02135454979985798</v>
+        <v>0.02506205191532645</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>128</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1213727500.876826</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2810255129.099201</v>
+        <v>2130955848.420192</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08876401889629662</v>
+        <v>0.09394462186166215</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03343368454530867</v>
+        <v>0.03567479206207011</v>
       </c>
       <c r="H37" t="b">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>136</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1405127703.315957</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1540121639.585223</v>
+        <v>1681174262.911341</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07553490358719765</v>
+        <v>0.09441298690200786</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0391580653602713</v>
+        <v>0.03583363802353266</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>770060863.4008375</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1818855759.092021</v>
+        <v>1957692001.640733</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1847802473730313</v>
+        <v>0.1636550680497535</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02399925230717163</v>
+        <v>0.02628974315070493</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>909427901.6387161</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1138622474.330036</v>
+        <v>1209702614.457061</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1406716940682437</v>
+        <v>0.1285909542974835</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03720128178767713</v>
+        <v>0.04147475521055857</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>569311293.8316803</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1936399785.430118</v>
+        <v>2633653348.484869</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1114454748614491</v>
+        <v>0.1160726319831102</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03237271497162388</v>
+        <v>0.03137327203720318</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>120</v>
-      </c>
-      <c r="J41" t="n">
-        <v>968199973.1697518</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3323331272.01838</v>
+        <v>3501800453.505901</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1051781003047988</v>
+        <v>0.0910775714666815</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04185002216952021</v>
+        <v>0.03599592876732137</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>163</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1661665618.732284</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2789260417.535852</v>
+        <v>2088276165.082181</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1837340607919689</v>
+        <v>0.1350558993647657</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0198204318753051</v>
+        <v>0.02488173966918495</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>173</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1394630228.372466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1859335338.469259</v>
+        <v>1718375694.187137</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09319783171119597</v>
+        <v>0.06718348348809439</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02718607658012046</v>
+        <v>0.03578374658517317</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>929667747.5187277</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1635855410.53596</v>
+        <v>2438777210.899961</v>
       </c>
       <c r="F45" t="n">
-        <v>0.160311833766918</v>
+        <v>0.1255566610434347</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03388349506887537</v>
+        <v>0.03506590701566218</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>817927659.4322683</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3995775214.241198</v>
+        <v>4454549679.392224</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1523615593988365</v>
+        <v>0.1741083053533199</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05875600545499989</v>
+        <v>0.04149188597572071</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>178</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1997887576.430862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5126259932.663511</v>
+        <v>5144068499.15041</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1231209850078706</v>
+        <v>0.1520801095782403</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04190059748082697</v>
+        <v>0.05840013209757237</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>138</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2563130029.343938</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3678229339.924218</v>
+        <v>3929379939.523615</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0772482948289686</v>
+        <v>0.08151998494613887</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02964532111977351</v>
+        <v>0.02425529305554009</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>165</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1839114723.058267</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1339015856.601879</v>
+        <v>1895451772.191677</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1661119738127537</v>
+        <v>0.1345792843441458</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03263237912630781</v>
+        <v>0.03365335280494194</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>669507985.3645778</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3364198024.516529</v>
+        <v>3518418032.069085</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1340053118835622</v>
+        <v>0.1684167013094685</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04951102332106209</v>
+        <v>0.04495245051934195</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>172</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1682099046.203842</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1400099404.849016</v>
+        <v>1362194511.829714</v>
       </c>
       <c r="F51" t="n">
-        <v>0.156508671253942</v>
+        <v>0.1777177515085327</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04790655696467536</v>
+        <v>0.04721890677735562</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>700049721.575348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4503060219.054914</v>
+        <v>4435703452.888322</v>
       </c>
       <c r="F52" t="n">
-        <v>0.10677056069663</v>
+        <v>0.1023895264056344</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04302177208535165</v>
+        <v>0.05337053587988846</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>206</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2251530136.419777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2592755738.142273</v>
+        <v>2804201383.389516</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1948598836313251</v>
+        <v>0.1284395596790608</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03194563779375305</v>
+        <v>0.03211387789401966</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1296377929.681348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3678395708.451952</v>
+        <v>3143005094.519875</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1482022290532844</v>
+        <v>0.1137275749699806</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03486347481615398</v>
+        <v>0.04426095507833214</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>162</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1839197893.077573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3452367234.027133</v>
+        <v>3262113811.304218</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1847884662431006</v>
+        <v>0.1492415357502301</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02710452765232331</v>
+        <v>0.03151190900503207</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1726183567.807645</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1580025309.167609</v>
+        <v>1767298296.001491</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1325563594701442</v>
+        <v>0.1087858571473825</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05130016714917632</v>
+        <v>0.05566069096195857</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>790012684.9811391</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2839293334.513104</v>
+        <v>4116356130.850064</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1824003516535077</v>
+        <v>0.1437530598537987</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01900662143170001</v>
+        <v>0.021952456964204</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>160</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1419646658.192729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1679477909.666799</v>
+        <v>1553382008.908646</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1910005878712911</v>
+        <v>0.1974530138206458</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02903625993638185</v>
+        <v>0.03212309632112637</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>839738969.6287746</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5164827565.249473</v>
+        <v>3667830005.846634</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1139943478033972</v>
+        <v>0.1279398530781656</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03914823697410585</v>
+        <v>0.03558001056485794</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2582413702.415091</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3208559412.776525</v>
+        <v>2870756575.889762</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1632694993927047</v>
+        <v>0.196671359808035</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02716077112122706</v>
+        <v>0.03330264310220665</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1604279798.639562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2438281441.205539</v>
+        <v>2419294075.182056</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1525815319364997</v>
+        <v>0.1272638792052633</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0266023942780993</v>
+        <v>0.02338160100439138</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>173</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1219140754.066728</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1317857239.954246</v>
+        <v>2059829729.652842</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1273088528333436</v>
+        <v>0.1582073163432164</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03354142053698379</v>
+        <v>0.0429918189750433</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>658928575.7074831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3402521527.067896</v>
+        <v>4835986678.430856</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1045035160146711</v>
+        <v>0.1073160689973017</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03441988653722099</v>
+        <v>0.04735097432710454</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>147</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1701260852.601105</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4756220568.442927</v>
+        <v>3468648757.559312</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1219955615011398</v>
+        <v>0.1180795320801638</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02461143547530526</v>
+        <v>0.0321945634494022</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>156</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2378110373.294068</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4613456260.18693</v>
+        <v>4262333078.445132</v>
       </c>
       <c r="F65" t="n">
-        <v>0.168614594473149</v>
+        <v>0.1343289759111059</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02990423073329809</v>
+        <v>0.03115356674446613</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>179</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2306728112.085005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5164884677.797252</v>
+        <v>4106186135.642233</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1002276902302223</v>
+        <v>0.1109275624777486</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03957089894694776</v>
+        <v>0.04410589812600438</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>147</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2582442374.955072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2447256935.17961</v>
+        <v>3375960146.628167</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07698610409350302</v>
+        <v>0.08569598730868684</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04107106898270096</v>
+        <v>0.03443269351810131</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>160</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1223628532.698207</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4359064030.348252</v>
+        <v>5869390959.463084</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1230251039436401</v>
+        <v>0.1124120465065947</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04705037966133949</v>
+        <v>0.03491084307732671</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>159</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2179532032.760396</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2308747957.176497</v>
+        <v>2414803960.438881</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1136309843731425</v>
+        <v>0.1436719278805182</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04476475419316867</v>
+        <v>0.0369779706194681</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1154374023.466198</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2355084170.372556</v>
+        <v>2573573304.728486</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06600178923749341</v>
+        <v>0.1024906839631437</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03940691287027297</v>
+        <v>0.04560115475952899</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>144</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1177542020.239342</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3934496997.474272</v>
+        <v>3950269453.745914</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1541293976448221</v>
+        <v>0.1860467921165613</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02225105278517555</v>
+        <v>0.03415276682736368</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>182</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1967248524.904193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1543377044.301901</v>
+        <v>2035742061.708193</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08761418532470371</v>
+        <v>0.1040782854392457</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04861430697819447</v>
+        <v>0.03788222530146435</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>771688542.135924</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2360010983.133936</v>
+        <v>2756804627.898089</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0862434355953017</v>
+        <v>0.07040672473705155</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04445480176132113</v>
+        <v>0.049457892459861</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>188</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1180005546.194349</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3748228141.137462</v>
+        <v>2501250119.979099</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1113196600207942</v>
+        <v>0.1473613801265452</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02774622362221795</v>
+        <v>0.02475441121075932</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>170</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1874114071.268757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1951560122.952891</v>
+        <v>2183756558.81715</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1667256983332514</v>
+        <v>0.1400163759603606</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02511509499801694</v>
+        <v>0.02647249735907465</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>975780030.2895225</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3514110017.711396</v>
+        <v>4549978176.815626</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1206129366197569</v>
+        <v>0.09185549681347903</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0292354099338319</v>
+        <v>0.03141687142404221</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1757054973.197972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2307916333.095424</v>
+        <v>2096600602.107028</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1433216717547085</v>
+        <v>0.1449114114878242</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02421095005347852</v>
+        <v>0.02601365540586104</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1153958273.54794</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3344964458.804262</v>
+        <v>4019395856.592796</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1025296558515991</v>
+        <v>0.08813689171246816</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04210405698708166</v>
+        <v>0.04404632815655293</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>174</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1672482242.032872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1464211335.490516</v>
+        <v>1617621270.888691</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1133011856982713</v>
+        <v>0.1737848444157458</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03076394098168114</v>
+        <v>0.02748201328967542</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>732105695.68569</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4014949125.031106</v>
+        <v>3606869809.049163</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09027492101916711</v>
+        <v>0.07167943551758482</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03312069536005203</v>
+        <v>0.03468930178625836</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2007474562.740394</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3434035127.853201</v>
+        <v>3539318840.798379</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1117696197198791</v>
+        <v>0.115817653844666</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02252053718683145</v>
+        <v>0.02618956412871797</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1717017506.1346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5194324443.91995</v>
+        <v>4140862479.926684</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1876831350982006</v>
+        <v>0.1944515090470865</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02517278455439346</v>
+        <v>0.02218440573333764</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>175</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2597162195.098525</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2366019982.964556</v>
+        <v>1726743910.275229</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1381397452441601</v>
+        <v>0.09785333750589385</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04258265773907146</v>
+        <v>0.03679504396610099</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1183010022.390629</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1716819687.858434</v>
+        <v>2104015264.247946</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09124451472254798</v>
+        <v>0.1126166641943343</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03282744491797908</v>
+        <v>0.04385004214807315</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>858409890.4008999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2370440414.250693</v>
+        <v>3266022355.062333</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1762539963160401</v>
+        <v>0.1184398384478254</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03865563660224688</v>
+        <v>0.03862809999400003</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>187</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1185220197.798157</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2599540050.276115</v>
+        <v>1912396697.18225</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1680985175302821</v>
+        <v>0.1587305509532085</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02467067069443274</v>
+        <v>0.02257896685196181</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>63</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1299770136.163187</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>966073679.1768485</v>
+        <v>1394145966.851947</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1287121891609488</v>
+        <v>0.1492851449140545</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03863737826862468</v>
+        <v>0.03888320518636957</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>483036835.2405793</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3443088841.007925</v>
+        <v>3023695201.983563</v>
       </c>
       <c r="F88" t="n">
-        <v>0.121142692596232</v>
+        <v>0.1766956390859995</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03791782334924599</v>
+        <v>0.03797022474108608</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>199</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1721544494.765017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3160873035.232807</v>
+        <v>3512353963.529874</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1520512759419311</v>
+        <v>0.1166380971635649</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03224584748240789</v>
+        <v>0.02576005229007511</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>170</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1580436543.971214</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1852106262.505537</v>
+        <v>2082272566.728739</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0887415846448744</v>
+        <v>0.09286345082879872</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03875697480647674</v>
+        <v>0.04275595754052923</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>926053174.4333657</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1336938115.006967</v>
+        <v>1961776468.89925</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1481187862403201</v>
+        <v>0.1466046940492335</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06044149938200257</v>
+        <v>0.0389517874903253</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>668469118.2056195</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2765418187.533663</v>
+        <v>2081476302.846424</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1098905053755945</v>
+        <v>0.0764664862492466</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04048612736320528</v>
+        <v>0.03091424864786835</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>135</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1382709097.800777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3142799769.997132</v>
+        <v>4150995661.702832</v>
       </c>
       <c r="F93" t="n">
-        <v>0.128122555408804</v>
+        <v>0.1064899078869671</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03851275122696438</v>
+        <v>0.04663125590851298</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1571399941.077746</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1830434928.796299</v>
+        <v>1602950784.421659</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1107456680754191</v>
+        <v>0.1554950466481992</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0261551664600408</v>
+        <v>0.03892370292956499</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>915217440.6874382</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2911582766.756608</v>
+        <v>2271711204.381617</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1346462968076839</v>
+        <v>0.08589065386078384</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04658661936407066</v>
+        <v>0.03743038168000004</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>121</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1455791389.542811</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2079139644.587724</v>
+        <v>2382848255.54983</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1326934718206849</v>
+        <v>0.1249196898856653</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04524457825568948</v>
+        <v>0.03230311050441992</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1039569800.849229</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4622980594.539967</v>
+        <v>4189920155.455548</v>
       </c>
       <c r="F97" t="n">
-        <v>0.113034336269972</v>
+        <v>0.1508638698626367</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02920914571205811</v>
+        <v>0.02282192404856869</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>160</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2311490403.769238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3668976961.935728</v>
+        <v>3173453639.471906</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1198009481285536</v>
+        <v>0.1193317573372615</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02164029777145096</v>
+        <v>0.02635903980509866</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>137</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1834488511.08262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3135302902.153155</v>
+        <v>3023099160.096869</v>
       </c>
       <c r="F99" t="n">
-        <v>0.101843489114796</v>
+        <v>0.09390451275562628</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02254115769669458</v>
+        <v>0.03290004349582089</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>156</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1567651446.836228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2899204204.450946</v>
+        <v>3070651610.274981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1105320452739402</v>
+        <v>0.1298563729933494</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02292095880408827</v>
+        <v>0.0202370057670455</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>154</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1449602085.047564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2414171826.863056</v>
+        <v>2980643061.163889</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1716643804459803</v>
+        <v>0.1601926351212332</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03627185489930254</v>
+        <v>0.04454924577891629</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>202</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1207085925.138577</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_500.xlsx
+++ b/output/fit_clients/fit_round_500.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2036612889.085322</v>
+        <v>2268205944.402601</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08844857403308261</v>
+        <v>0.08784347670209679</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03212786800914234</v>
+        <v>0.0356418766908872</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2226548096.20976</v>
+        <v>1932021597.195426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1468633241680092</v>
+        <v>0.1673729827767258</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03836582005140809</v>
+        <v>0.04130410745520931</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3493814754.087573</v>
+        <v>4156922373.365712</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1367748339952213</v>
+        <v>0.1503591510196584</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03021424121094369</v>
+        <v>0.02626028352547663</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3211616690.995124</v>
+        <v>4143726291.406868</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07570314148933639</v>
+        <v>0.1055246278006397</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03866716146742662</v>
+        <v>0.03401290866321831</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1824109800.267291</v>
+        <v>2181034830.478413</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09028464971227766</v>
+        <v>0.1074282447006317</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04718362503906678</v>
+        <v>0.03653586909171441</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2004533963.238774</v>
+        <v>2039455829.403512</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09398033146644912</v>
+        <v>0.08963100286516698</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0420197369050574</v>
+        <v>0.04005264003617193</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3512320421.651727</v>
+        <v>3953629754.289092</v>
       </c>
       <c r="F8" t="n">
-        <v>0.177581255943188</v>
+        <v>0.1657461025903071</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03181990436555029</v>
+        <v>0.02950085068920626</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1496827128.05312</v>
+        <v>2122947995.312506</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1964764923966187</v>
+        <v>0.1457930642634285</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03512036392980523</v>
+        <v>0.02375589124616347</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5259699745.712213</v>
+        <v>4643460914.70539</v>
       </c>
       <c r="F10" t="n">
-        <v>0.173466246543831</v>
+        <v>0.1948710485375367</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0427588881524141</v>
+        <v>0.04563395284482338</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2770239847.819528</v>
+        <v>3813659254.472412</v>
       </c>
       <c r="F11" t="n">
-        <v>0.153872688033177</v>
+        <v>0.139560788180081</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0453252811535696</v>
+        <v>0.04060977593700946</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2482532503.952109</v>
+        <v>2164078845.432953</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1747211672080358</v>
+        <v>0.162866118854828</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0437868644578511</v>
+        <v>0.03475172430034036</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4956520400.347637</v>
+        <v>4400219527.806811</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06521490408518475</v>
+        <v>0.08745202977176675</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02033792008190746</v>
+        <v>0.02385782754366987</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3777615533.113922</v>
+        <v>3317360571.700505</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1574740200947709</v>
+        <v>0.1328162459417061</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04394825955714921</v>
+        <v>0.03473113208062551</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1340003253.112244</v>
+        <v>1586652535.085854</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08339984775258091</v>
+        <v>0.07742803348694176</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03774303284743358</v>
+        <v>0.0311481709000465</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2062611396.56269</v>
+        <v>2784446944.166317</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0752173365542223</v>
+        <v>0.1061747277009278</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0461227322156296</v>
+        <v>0.04000566984277661</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4537693364.369197</v>
+        <v>3505754108.99502</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1639386372108231</v>
+        <v>0.1169299313766875</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04500036918012028</v>
+        <v>0.03938943246258035</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3161507757.563658</v>
+        <v>2806670389.869419</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1275376623116689</v>
+        <v>0.1457648262617098</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02982479411573852</v>
+        <v>0.02696926332840067</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1369044690.268794</v>
+        <v>1338894228.148649</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1843499169012145</v>
+        <v>0.1642151993586112</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0229728502405678</v>
+        <v>0.02709362610221413</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2779328840.833985</v>
+        <v>2789947221.487446</v>
       </c>
       <c r="F20" t="n">
-        <v>0.15392637329066</v>
+        <v>0.1233420582535299</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03153562086650444</v>
+        <v>0.02279125480639421</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2261931753.158942</v>
+        <v>1833183627.176471</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09377799478008107</v>
+        <v>0.06846547894234564</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03051860990816154</v>
+        <v>0.03334665450129772</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3652714912.001915</v>
+        <v>2993946294.816512</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1348884595843545</v>
+        <v>0.1099551104032919</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04829193534963392</v>
+        <v>0.05515546427486834</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1203511894.155721</v>
+        <v>1498417362.542258</v>
       </c>
       <c r="F23" t="n">
-        <v>0.182455777400639</v>
+        <v>0.1342706427441598</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0440211351547331</v>
+        <v>0.03891150001882233</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3110861624.926374</v>
+        <v>2844604839.725068</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09714597691025988</v>
+        <v>0.1440305056683513</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03578688276425132</v>
+        <v>0.03706263466459903</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1259946570.000432</v>
+        <v>1134295018.786963</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08551564171260816</v>
+        <v>0.1107969372779551</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02730328707003106</v>
+        <v>0.02022546849439668</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>879279344.5577668</v>
+        <v>998311126.0993248</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1153234080453527</v>
+        <v>0.1134391535800329</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03733812272003616</v>
+        <v>0.03786551096309545</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4370869907.344492</v>
+        <v>3640516687.905716</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1085575381117808</v>
+        <v>0.1137369836909286</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01667355540272394</v>
+        <v>0.02045457842996204</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2468076802.857714</v>
+        <v>2816732970.196268</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09433819315359653</v>
+        <v>0.1219046420577521</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04997508313646454</v>
+        <v>0.03542541864237411</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4886160986.833427</v>
+        <v>4451799920.835923</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0971452290771261</v>
+        <v>0.1165789907401196</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02898534460898736</v>
+        <v>0.04338573810212088</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2284150865.202161</v>
+        <v>1577983498.306328</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09280285558126139</v>
+        <v>0.139540095703046</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03196524654188867</v>
+        <v>0.03504905798026467</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>989328441.0100052</v>
+        <v>930923975.7441671</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1110146411647816</v>
+        <v>0.07488474343134478</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04528331407993166</v>
+        <v>0.048043320524405</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1155664981.174516</v>
+        <v>1457694098.157331</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1016679170599805</v>
+        <v>0.08392918707488545</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03713543958964752</v>
+        <v>0.03649889507684898</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3072021319.893421</v>
+        <v>3113109839.014898</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1908420528528971</v>
+        <v>0.172364806948906</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05321919865942296</v>
+        <v>0.03713634624031984</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1322579360.301254</v>
+        <v>1535126224.585957</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1135473270692451</v>
+        <v>0.1049453887869304</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02497894632024716</v>
+        <v>0.02326378430229515</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1342189325.587192</v>
+        <v>966407301.012324</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09776303153166989</v>
+        <v>0.1158286089546464</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04054417854314639</v>
+        <v>0.03196696301259508</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2094677351.222787</v>
+        <v>3208866847.731037</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1244546827765928</v>
+        <v>0.1247181291023817</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02506205191532645</v>
+        <v>0.02114366711416293</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2130955848.420192</v>
+        <v>2561864584.825774</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09394462186166215</v>
+        <v>0.06906052749712885</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03567479206207011</v>
+        <v>0.03137058246753462</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1681174262.911341</v>
+        <v>1552594413.589035</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09441298690200786</v>
+        <v>0.103716669695899</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03583363802353266</v>
+        <v>0.02821759433069038</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1957692001.640733</v>
+        <v>1854430853.260363</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1636550680497535</v>
+        <v>0.1424992282981336</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02628974315070493</v>
+        <v>0.02019760992545125</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1209702614.457061</v>
+        <v>1450796238.718819</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1285909542974835</v>
+        <v>0.1443175441388561</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04147475521055857</v>
+        <v>0.05027092378829905</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2633653348.484869</v>
+        <v>1824887041.145939</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1160726319831102</v>
+        <v>0.152173440143264</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03137327203720318</v>
+        <v>0.02886444188548128</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3501800453.505901</v>
+        <v>3003970719.291344</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0910775714666815</v>
+        <v>0.1277443113751964</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03599592876732137</v>
+        <v>0.0403036979574496</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2088276165.082181</v>
+        <v>2414697005.751582</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1350558993647657</v>
+        <v>0.1704067230124819</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02488173966918495</v>
+        <v>0.01880653467434427</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1718375694.187137</v>
+        <v>1512496774.00391</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06718348348809439</v>
+        <v>0.06363802490085269</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03578374658517317</v>
+        <v>0.03225524319749753</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2438777210.899961</v>
+        <v>1813907285.121613</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1255566610434347</v>
+        <v>0.1571282684804962</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03506590701566218</v>
+        <v>0.05493731801925855</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4454549679.392224</v>
+        <v>5240949302.729876</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1741083053533199</v>
+        <v>0.1346465478957256</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04149188597572071</v>
+        <v>0.05757952518610869</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5144068499.15041</v>
+        <v>4776862526.289479</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1520801095782403</v>
+        <v>0.1597695981412632</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05840013209757237</v>
+        <v>0.0553893446740996</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3929379939.523615</v>
+        <v>3554018658.352569</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08151998494613887</v>
+        <v>0.06762999839182912</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02425529305554009</v>
+        <v>0.02839167746579706</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1895451772.191677</v>
+        <v>1560184028.82663</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1345792843441458</v>
+        <v>0.1201409271630835</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03365335280494194</v>
+        <v>0.02884781384517753</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3518418032.069085</v>
+        <v>3212168592.980742</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1684167013094685</v>
+        <v>0.1311393087140277</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04495245051934195</v>
+        <v>0.03949647993417846</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1362194511.829714</v>
+        <v>1476999745.904784</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1777177515085327</v>
+        <v>0.1425484590779082</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04721890677735562</v>
+        <v>0.03832136700876464</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4435703452.888322</v>
+        <v>5300415903.47023</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1023895264056344</v>
+        <v>0.1172023796412448</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05337053587988846</v>
+        <v>0.0614465424980714</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2804201383.389516</v>
+        <v>2909097638.352335</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1284395596790608</v>
+        <v>0.1815248324009956</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03211387789401966</v>
+        <v>0.02989594658829043</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3143005094.519875</v>
+        <v>3183369077.082133</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1137275749699806</v>
+        <v>0.1071892948397869</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04426095507833214</v>
+        <v>0.04906161803701113</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3262113811.304218</v>
+        <v>3527189172.176391</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1492415357502301</v>
+        <v>0.1722108115724054</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03151190900503207</v>
+        <v>0.02599568044854807</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1767298296.001491</v>
+        <v>1275493012.040498</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1087858571473825</v>
+        <v>0.1247343468250805</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05566069096195857</v>
+        <v>0.04361420378657176</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4116356130.850064</v>
+        <v>4404533479.787069</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1437530598537987</v>
+        <v>0.1243682001651414</v>
       </c>
       <c r="G57" t="n">
-        <v>0.021952456964204</v>
+        <v>0.02206122690309572</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1553382008.908646</v>
+        <v>1589506743.681848</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1974530138206458</v>
+        <v>0.1530616005598982</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03212309632112637</v>
+        <v>0.03613617678527364</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3667830005.846634</v>
+        <v>4707533770.565269</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1279398530781656</v>
+        <v>0.1297391234435838</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03558001056485794</v>
+        <v>0.03772541536827687</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2870756575.889762</v>
+        <v>2282041241.141731</v>
       </c>
       <c r="F60" t="n">
-        <v>0.196671359808035</v>
+        <v>0.156442657527794</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03330264310220665</v>
+        <v>0.03029903490488583</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2419294075.182056</v>
+        <v>2377159403.463207</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1272638792052633</v>
+        <v>0.155785522714333</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02338160100439138</v>
+        <v>0.02454530454993227</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2059829729.652842</v>
+        <v>1712359798.321904</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1582073163432164</v>
+        <v>0.1627397843614957</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0429918189750433</v>
+        <v>0.04843718846920296</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4835986678.430856</v>
+        <v>3605281839.298079</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1073160689973017</v>
+        <v>0.08629321825984076</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04735097432710454</v>
+        <v>0.03413804646762137</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3468648757.559312</v>
+        <v>4110992973.307193</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1180795320801638</v>
+        <v>0.1357959495502063</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0321945634494022</v>
+        <v>0.03210555456631509</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4262333078.445132</v>
+        <v>5224259494.188021</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1343289759111059</v>
+        <v>0.1673834546906741</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03115356674446613</v>
+        <v>0.02551950892005447</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4106186135.642233</v>
+        <v>3928664862.746585</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1109275624777486</v>
+        <v>0.1116115838644045</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04410589812600438</v>
+        <v>0.05095110573011311</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3375960146.628167</v>
+        <v>2194934719.351992</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08569598730868684</v>
+        <v>0.06928823108921683</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03443269351810131</v>
+        <v>0.04510161290414842</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5869390959.463084</v>
+        <v>5021222085.522486</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1124120465065947</v>
+        <v>0.1395138388803989</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03491084307732671</v>
+        <v>0.0330408774709876</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2414803960.438881</v>
+        <v>2074781818.632596</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1436719278805182</v>
+        <v>0.1256940207915819</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0369779706194681</v>
+        <v>0.03999433618465402</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2573573304.728486</v>
+        <v>2949246372.876303</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1024906839631437</v>
+        <v>0.09221544019131092</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04560115475952899</v>
+        <v>0.0366013122263535</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3950269453.745914</v>
+        <v>4342437246.734084</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1860467921165613</v>
+        <v>0.1463142364613706</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03415276682736368</v>
+        <v>0.02919497015529429</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2035742061.708193</v>
+        <v>2110268358.641219</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1040782854392457</v>
+        <v>0.1056163668986048</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03788222530146435</v>
+        <v>0.04226408381381172</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2756804627.898089</v>
+        <v>2159353262.24669</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07040672473705155</v>
+        <v>0.08933839486049693</v>
       </c>
       <c r="G73" t="n">
-        <v>0.049457892459861</v>
+        <v>0.04254411242217281</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2501250119.979099</v>
+        <v>3422062209.747322</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1473613801265452</v>
+        <v>0.1660654456658575</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02475441121075932</v>
+        <v>0.0315553012741495</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2183756558.81715</v>
+        <v>2029893646.896881</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1400163759603606</v>
+        <v>0.1467881449891432</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02647249735907465</v>
+        <v>0.03105188744878951</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4549978176.815626</v>
+        <v>4697052326.537231</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09185549681347903</v>
+        <v>0.1067604482593911</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03141687142404221</v>
+        <v>0.02821623062090142</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2096600602.107028</v>
+        <v>2100878528.688519</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1449114114878242</v>
+        <v>0.1371060606317569</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02601365540586104</v>
+        <v>0.01912586279885161</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4019395856.592796</v>
+        <v>4469945311.433567</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08813689171246816</v>
+        <v>0.1267815468733137</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04404632815655293</v>
+        <v>0.03641421337031708</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1617621270.888691</v>
+        <v>1195283874.613724</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1737848444157458</v>
+        <v>0.1111705834816949</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02748201328967542</v>
+        <v>0.03817166474155752</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3606869809.049163</v>
+        <v>5228051167.562152</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07167943551758482</v>
+        <v>0.08476066646814201</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03468930178625836</v>
+        <v>0.03716873277507737</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3539318840.798379</v>
+        <v>3154553057.726933</v>
       </c>
       <c r="F81" t="n">
-        <v>0.115817653844666</v>
+        <v>0.1165541876789522</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02618956412871797</v>
+        <v>0.02509056543401826</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4140862479.926684</v>
+        <v>3548462315.188758</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1944515090470865</v>
+        <v>0.1358213621071294</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02218440573333764</v>
+        <v>0.0274555677306715</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1726743910.275229</v>
+        <v>1762806434.120491</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09785333750589385</v>
+        <v>0.1417354007532263</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03679504396610099</v>
+        <v>0.03864827158748396</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2104015264.247946</v>
+        <v>2521872179.228738</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1126166641943343</v>
+        <v>0.1040810610801747</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04385004214807315</v>
+        <v>0.03719093411293788</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3266022355.062333</v>
+        <v>2553475470.359589</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1184398384478254</v>
+        <v>0.1482315074442175</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03862809999400003</v>
+        <v>0.03585289460107213</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1912396697.18225</v>
+        <v>2214276610.213883</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1587305509532085</v>
+        <v>0.1328212351666707</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02257896685196181</v>
+        <v>0.0189822850202272</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1394145966.851947</v>
+        <v>1376111543.934438</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1492851449140545</v>
+        <v>0.1690458117184665</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03888320518636957</v>
+        <v>0.03511960424537581</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3023695201.983563</v>
+        <v>2931460302.881433</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1766956390859995</v>
+        <v>0.1433758591298855</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03797022474108608</v>
+        <v>0.028114867176882</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3512353963.529874</v>
+        <v>3000570544.117663</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1166380971635649</v>
+        <v>0.1165153769704589</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02576005229007511</v>
+        <v>0.03820147488643504</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2082272566.728739</v>
+        <v>1575444605.0374</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09286345082879872</v>
+        <v>0.1260889449016299</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04275595754052923</v>
+        <v>0.03796153419628867</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1961776468.89925</v>
+        <v>1290919085.165463</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1466046940492335</v>
+        <v>0.1955756531486972</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0389517874903253</v>
+        <v>0.04052743259414336</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2081476302.846424</v>
+        <v>2299345928.119679</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0764664862492466</v>
+        <v>0.09080456771682366</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03091424864786835</v>
+        <v>0.04143053321468367</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4150995661.702832</v>
+        <v>4846317221.711308</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1064899078869671</v>
+        <v>0.1024445917714339</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04663125590851298</v>
+        <v>0.0496579605504086</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1602950784.421659</v>
+        <v>1997393351.17659</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1554950466481992</v>
+        <v>0.1553358017851819</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03892370292956499</v>
+        <v>0.0294669828907602</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2271711204.381617</v>
+        <v>2312882419.222328</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08589065386078384</v>
+        <v>0.112367560730434</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03743038168000004</v>
+        <v>0.03688450329100473</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2382848255.54983</v>
+        <v>2193674557.220434</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1249196898856653</v>
+        <v>0.1415702111341409</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03230311050441992</v>
+        <v>0.03642541756657322</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4189920155.455548</v>
+        <v>3979970384.166903</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1508638698626367</v>
+        <v>0.1261570592815304</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02282192404856869</v>
+        <v>0.02282801550643207</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3173453639.471906</v>
+        <v>2482621819.204158</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1193317573372615</v>
+        <v>0.09315056549769229</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02635903980509866</v>
+        <v>0.02401340466359487</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3023099160.096869</v>
+        <v>3282814455.502786</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09390451275562628</v>
+        <v>0.09468800727575098</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03290004349582089</v>
+        <v>0.03023083910930437</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3070651610.274981</v>
+        <v>3328171271.644885</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1298563729933494</v>
+        <v>0.1302751643135298</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0202370057670455</v>
+        <v>0.01697663267971942</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2980643061.163889</v>
+        <v>3158207162.433451</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1601926351212332</v>
+        <v>0.2021880992963706</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04454924577891629</v>
+        <v>0.04337927420929669</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_500.xlsx
+++ b/output/fit_clients/fit_round_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2268205944.402601</v>
+        <v>1848341453.603909</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08784347670209679</v>
+        <v>0.1033778716503958</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0356418766908872</v>
+        <v>0.04417192206836249</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1932021597.195426</v>
+        <v>2645171767.998331</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1673729827767258</v>
+        <v>0.1684859889772914</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04130410745520931</v>
+        <v>0.03088694869711929</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4156922373.365712</v>
+        <v>3310268687.528583</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1503591510196584</v>
+        <v>0.1609293067950296</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02626028352547663</v>
+        <v>0.03813994404413432</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>252</v>
+      </c>
+      <c r="J4" t="n">
+        <v>499</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.12006586352178</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4143726291.406868</v>
+        <v>3695820940.628507</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1055246278006397</v>
+        <v>0.08111573531011707</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03401290866321831</v>
+        <v>0.04644639527303658</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>211</v>
+      </c>
+      <c r="J5" t="n">
+        <v>500</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2181034830.478413</v>
+        <v>2485844386.214618</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1074282447006317</v>
+        <v>0.1364931989999073</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03653586909171441</v>
+        <v>0.04676318014927151</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2039455829.403512</v>
+        <v>2690512578.15135</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08963100286516698</v>
+        <v>0.09823213943448508</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04005264003617193</v>
+        <v>0.04877927312259218</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3953629754.289092</v>
+        <v>3717612760.914893</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1657461025903071</v>
+        <v>0.1593979313432232</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02950085068920626</v>
+        <v>0.02146152168643105</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>143</v>
+      </c>
+      <c r="J8" t="n">
+        <v>500</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2122947995.312506</v>
+        <v>1494894837.260836</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1457930642634285</v>
+        <v>0.1521210509968109</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02375589124616347</v>
+        <v>0.02533086558095674</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4643460914.70539</v>
+        <v>5476860428.023295</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1948710485375367</v>
+        <v>0.1416326211430686</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04563395284482338</v>
+        <v>0.03557547712075503</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>376</v>
+      </c>
+      <c r="J10" t="n">
+        <v>499</v>
+      </c>
+      <c r="K10" t="n">
+        <v>23.36535602099649</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3813659254.472412</v>
+        <v>3154340800.039023</v>
       </c>
       <c r="F11" t="n">
-        <v>0.139560788180081</v>
+        <v>0.1162890348851119</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04060977593700946</v>
+        <v>0.0301042151712418</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>208</v>
+      </c>
+      <c r="J11" t="n">
+        <v>499</v>
+      </c>
+      <c r="K11" t="n">
+        <v>21.80219078873919</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2164078845.432953</v>
+        <v>2668005836.592347</v>
       </c>
       <c r="F12" t="n">
-        <v>0.162866118854828</v>
+        <v>0.1741849921610631</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03475172430034036</v>
+        <v>0.0410290547082322</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4400219527.806811</v>
+        <v>3829880017.800017</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08745202977176675</v>
+        <v>0.08727484637672624</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02385782754366987</v>
+        <v>0.02711182320830908</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>258</v>
+      </c>
+      <c r="J13" t="n">
+        <v>499</v>
+      </c>
+      <c r="K13" t="n">
+        <v>25.40076062743364</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3317360571.700505</v>
+        <v>3230206662.369974</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1328162459417061</v>
+        <v>0.1816834065489646</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03473113208062551</v>
+        <v>0.03081256125667335</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>118</v>
+      </c>
+      <c r="J14" t="n">
+        <v>498</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1586652535.085854</v>
+        <v>1224377841.776413</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07742803348694176</v>
+        <v>0.07624346393384637</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0311481709000465</v>
+        <v>0.04541040153589684</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2784446944.166317</v>
+        <v>2045161394.677597</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1061747277009278</v>
+        <v>0.07604836119956865</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04000566984277661</v>
+        <v>0.05147687309702536</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3505754108.99502</v>
+        <v>5148605023.571468</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1169299313766875</v>
+        <v>0.1467477798784649</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03938943246258035</v>
+        <v>0.04664334616014272</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>244</v>
+      </c>
+      <c r="J17" t="n">
+        <v>499</v>
+      </c>
+      <c r="K17" t="n">
+        <v>25.43927065450457</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2806670389.869419</v>
+        <v>3548968781.075469</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1457648262617098</v>
+        <v>0.1607009704027977</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02696926332840067</v>
+        <v>0.03111768172287491</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>135</v>
+      </c>
+      <c r="J18" t="n">
+        <v>500</v>
+      </c>
+      <c r="K18" t="n">
+        <v>31.77783126337071</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1338894228.148649</v>
+        <v>829303972.7218202</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1642151993586112</v>
+        <v>0.1226011318133394</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02709362610221413</v>
+        <v>0.02263073996307892</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2789947221.487446</v>
+        <v>2569871995.290354</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1233420582535299</v>
+        <v>0.125172791604273</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02279125480639421</v>
+        <v>0.02482426288958418</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1833183627.176471</v>
+        <v>2213600751.173679</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06846547894234564</v>
+        <v>0.1015007866808859</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03334665450129772</v>
+        <v>0.04238542766427669</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1213,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2993946294.816512</v>
+        <v>2987878788.553945</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1099551104032919</v>
+        <v>0.1016715139037152</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05515546427486834</v>
+        <v>0.03465998371945399</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>147</v>
+      </c>
+      <c r="J22" t="n">
+        <v>498</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1498417362.542258</v>
+        <v>951257814.8024361</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1342706427441598</v>
+        <v>0.1599164302532917</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03891150001882233</v>
+        <v>0.03903375219033783</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2844604839.725068</v>
+        <v>3458445148.843614</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1440305056683513</v>
+        <v>0.1163389686554756</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03706263466459903</v>
+        <v>0.03322998755929003</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>158</v>
+      </c>
+      <c r="J24" t="n">
+        <v>500</v>
+      </c>
+      <c r="K24" t="n">
+        <v>28.51270136460683</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1134295018.786963</v>
+        <v>1275869311.943413</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1107969372779551</v>
+        <v>0.1218755475816192</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02022546849439668</v>
+        <v>0.02118331059622703</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1355,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>998311126.0993248</v>
+        <v>1316408601.564997</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1134391535800329</v>
+        <v>0.1241722513291049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03786551096309545</v>
+        <v>0.03780554465160828</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1390,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3640516687.905716</v>
+        <v>4418623345.905586</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1137369836909286</v>
+        <v>0.1456757708837917</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02045457842996204</v>
+        <v>0.01876331081827915</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>224</v>
+      </c>
+      <c r="J27" t="n">
+        <v>500</v>
+      </c>
+      <c r="K27" t="n">
+        <v>28.33883441978933</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2816732970.196268</v>
+        <v>2712221818.500371</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1219046420577521</v>
+        <v>0.0993694264472801</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03542541864237411</v>
+        <v>0.04411706429306424</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>122</v>
+      </c>
+      <c r="J28" t="n">
+        <v>491</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4451799920.835923</v>
+        <v>5215171122.82429</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1165789907401196</v>
+        <v>0.126533680472074</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04338573810212088</v>
+        <v>0.03287335876349164</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>391</v>
+      </c>
+      <c r="J29" t="n">
+        <v>499</v>
+      </c>
+      <c r="K29" t="n">
+        <v>24.75764068991198</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1577983498.306328</v>
+        <v>2157531319.778151</v>
       </c>
       <c r="F30" t="n">
-        <v>0.139540095703046</v>
+        <v>0.1216927267735661</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03504905798026467</v>
+        <v>0.03526969940501679</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>930923975.7441671</v>
+        <v>1212964565.122169</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07488474343134478</v>
+        <v>0.07590183781891531</v>
       </c>
       <c r="G31" t="n">
-        <v>0.048043320524405</v>
+        <v>0.04180439177269419</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1457694098.157331</v>
+        <v>1157031572.806052</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08392918707488545</v>
+        <v>0.09738746247641702</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03649889507684898</v>
+        <v>0.02765356943001169</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3113109839.014898</v>
+        <v>2710114017.380146</v>
       </c>
       <c r="F33" t="n">
-        <v>0.172364806948906</v>
+        <v>0.1608597298399496</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03713634624031984</v>
+        <v>0.06033510089680244</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1535126224.585957</v>
+        <v>1103832966.095185</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1049453887869304</v>
+        <v>0.1087995289297058</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02326378430229515</v>
+        <v>0.02072132247858466</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>966407301.012324</v>
+        <v>1130751090.282654</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1158286089546464</v>
+        <v>0.08317867294672507</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03196696301259508</v>
+        <v>0.03175046527502867</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3208866847.731037</v>
+        <v>2713307057.969659</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1247181291023817</v>
+        <v>0.1448170405022915</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02114366711416293</v>
+        <v>0.02012183309196488</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2561864584.825774</v>
+        <v>2547688401.707836</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06906052749712885</v>
+        <v>0.07523068830404758</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03137058246753462</v>
+        <v>0.03841407136554455</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1552594413.589035</v>
+        <v>2159213086.385539</v>
       </c>
       <c r="F38" t="n">
-        <v>0.103716669695899</v>
+        <v>0.1106220384682917</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02821759433069038</v>
+        <v>0.02678322028308348</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1854430853.260363</v>
+        <v>1884940350.222421</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1424992282981336</v>
+        <v>0.1401096961010694</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02019760992545125</v>
+        <v>0.02854599747309723</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1450796238.718819</v>
+        <v>1229583621.657565</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1443175441388561</v>
+        <v>0.1624725467793171</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05027092378829905</v>
+        <v>0.03629545583797057</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1824887041.145939</v>
+        <v>2871756312.169224</v>
       </c>
       <c r="F41" t="n">
-        <v>0.152173440143264</v>
+        <v>0.1358864029155436</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02886444188548128</v>
+        <v>0.04179546035069703</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1913,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3003970719.291344</v>
+        <v>2768435818.409513</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1277443113751964</v>
+        <v>0.08581837039019813</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0403036979574496</v>
+        <v>0.04381176944582606</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>213</v>
+      </c>
+      <c r="J42" t="n">
+        <v>499</v>
+      </c>
+      <c r="K42" t="n">
+        <v>20.00862853111526</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1950,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2414697005.751582</v>
+        <v>2043861780.355129</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1704067230124819</v>
+        <v>0.1582832779933093</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01880653467434427</v>
+        <v>0.02569155674723501</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1985,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1512496774.00391</v>
+        <v>1972671024.48189</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06363802490085269</v>
+        <v>0.07337585102071495</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03225524319749753</v>
+        <v>0.02710042047941995</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2020,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1813907285.121613</v>
+        <v>1995302128.666718</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1571282684804962</v>
+        <v>0.1216581299771096</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05493731801925855</v>
+        <v>0.04296871074981103</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2055,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5240949302.729876</v>
+        <v>5258850343.609511</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1346465478957256</v>
+        <v>0.163208546253247</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05757952518610869</v>
+        <v>0.06054878340554816</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>293</v>
+      </c>
+      <c r="J46" t="n">
+        <v>500</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2090,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4776862526.289479</v>
+        <v>3767582891.968584</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1597695981412632</v>
+        <v>0.1255675238697243</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0553893446740996</v>
+        <v>0.05465729259881785</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>227</v>
+      </c>
+      <c r="J47" t="n">
+        <v>500</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2125,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3554018658.352569</v>
+        <v>3795173081.187058</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06762999839182912</v>
+        <v>0.08582868259111553</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02839167746579706</v>
+        <v>0.03768698282384243</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>251</v>
+      </c>
+      <c r="J48" t="n">
+        <v>499</v>
+      </c>
+      <c r="K48" t="n">
+        <v>24.90807498988526</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1560184028.82663</v>
+        <v>1755582514.315934</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1201409271630835</v>
+        <v>0.1343871877351893</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02884781384517753</v>
+        <v>0.04308285964410583</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2203,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3212168592.980742</v>
+        <v>3683617459.616919</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1311393087140277</v>
+        <v>0.1564175716554693</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03949647993417846</v>
+        <v>0.04736216276084696</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>179</v>
+      </c>
+      <c r="J50" t="n">
+        <v>500</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1476999745.904784</v>
+        <v>961925086.9144313</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1425484590779082</v>
+        <v>0.1261405212619359</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03832136700876464</v>
+        <v>0.0495444806720813</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5300415903.47023</v>
+        <v>5217302668.795382</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1172023796412448</v>
+        <v>0.126900258345386</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0614465424980714</v>
+        <v>0.05719428256517749</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>278</v>
+      </c>
+      <c r="J52" t="n">
+        <v>499</v>
+      </c>
+      <c r="K52" t="n">
+        <v>23.0606120063009</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2304,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2909097638.352335</v>
+        <v>3211982311.776869</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1815248324009956</v>
+        <v>0.1573476457813392</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02989594658829043</v>
+        <v>0.02642250393571599</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>80</v>
+      </c>
+      <c r="J53" t="n">
+        <v>496</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2345,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3183369077.082133</v>
+        <v>3839468298.120805</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1071892948397869</v>
+        <v>0.1214841788946276</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04906161803701113</v>
+        <v>0.04104000727670032</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>262</v>
+      </c>
+      <c r="J54" t="n">
+        <v>500</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3527189172.176391</v>
+        <v>3840623825.746411</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1722108115724054</v>
+        <v>0.1373215725801864</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02599568044854807</v>
+        <v>0.0315161600437985</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>247</v>
+      </c>
+      <c r="J55" t="n">
+        <v>499</v>
+      </c>
+      <c r="K55" t="n">
+        <v>26.70548393860854</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1275493012.040498</v>
+        <v>1848768424.677058</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1247343468250805</v>
+        <v>0.108254496131573</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04361420378657176</v>
+        <v>0.04902548414815103</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2452,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4404533479.787069</v>
+        <v>3270586046.521933</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1243682001651414</v>
+        <v>0.1662451279695123</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02206122690309572</v>
+        <v>0.02042387400026888</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>213</v>
+      </c>
+      <c r="J57" t="n">
+        <v>497</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1589506743.681848</v>
+        <v>1771317372.578954</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1530616005598982</v>
+        <v>0.1700489809719161</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03613617678527364</v>
+        <v>0.0395093103653141</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2522,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4707533770.565269</v>
+        <v>4021929025.311836</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1297391234435838</v>
+        <v>0.1256269528116556</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03772541536827687</v>
+        <v>0.03735575613121476</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>246</v>
+      </c>
+      <c r="J59" t="n">
+        <v>499</v>
+      </c>
+      <c r="K59" t="n">
+        <v>25.26564726167511</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2559,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2282041241.141731</v>
+        <v>2586046342.347481</v>
       </c>
       <c r="F60" t="n">
-        <v>0.156442657527794</v>
+        <v>0.1261769060056261</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03029903490488583</v>
+        <v>0.0292567981825193</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>101</v>
+      </c>
+      <c r="J60" t="n">
+        <v>491</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2594,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2377159403.463207</v>
+        <v>2216086349.199348</v>
       </c>
       <c r="F61" t="n">
-        <v>0.155785522714333</v>
+        <v>0.1277190558901167</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02454530454993227</v>
+        <v>0.02261276020757181</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1712359798.321904</v>
+        <v>1408899072.856767</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1627397843614957</v>
+        <v>0.181083031501926</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04843718846920296</v>
+        <v>0.04975410856756207</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2664,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3605281839.298079</v>
+        <v>5519163937.553662</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08629321825984076</v>
+        <v>0.09026093424204852</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03413804646762137</v>
+        <v>0.03345346366737771</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>249</v>
+      </c>
+      <c r="J63" t="n">
+        <v>500</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4110992973.307193</v>
+        <v>4320263694.738021</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1357959495502063</v>
+        <v>0.1400735271281759</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03210555456631509</v>
+        <v>0.02338352698061843</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>249</v>
+      </c>
+      <c r="J64" t="n">
+        <v>500</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5224259494.188021</v>
+        <v>4036170226.073225</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1673834546906741</v>
+        <v>0.1201946392954197</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02551950892005447</v>
+        <v>0.02128720998473449</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>348</v>
+      </c>
+      <c r="J65" t="n">
+        <v>499</v>
+      </c>
+      <c r="K65" t="n">
+        <v>23.88570107907025</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3928664862.746585</v>
+        <v>4272502078.162587</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1116115838644045</v>
+        <v>0.1005554372580905</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05095110573011311</v>
+        <v>0.04957064831831027</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>247</v>
+      </c>
+      <c r="J66" t="n">
+        <v>500</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2194934719.351992</v>
+        <v>2880685591.23666</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06928823108921683</v>
+        <v>0.08352524863816689</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04510161290414842</v>
+        <v>0.03587945052951937</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>18</v>
+      </c>
+      <c r="J67" t="n">
+        <v>496</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2841,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5021222085.522486</v>
+        <v>4726691250.55362</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1395138388803989</v>
+        <v>0.1100386052371174</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0330408774709876</v>
+        <v>0.04617835663685284</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>271</v>
+      </c>
+      <c r="J68" t="n">
+        <v>499</v>
+      </c>
+      <c r="K68" t="n">
+        <v>26.0712463722365</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2074781818.632596</v>
+        <v>1837590016.065358</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1256940207915819</v>
+        <v>0.1545313412399619</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03999433618465402</v>
+        <v>0.03830252945075233</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2907,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2949246372.876303</v>
+        <v>3138544242.194223</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09221544019131092</v>
+        <v>0.07871305440867513</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0366013122263535</v>
+        <v>0.04293006941995136</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>78</v>
+      </c>
+      <c r="J70" t="n">
+        <v>500</v>
+      </c>
+      <c r="K70" t="n">
+        <v>28.43668592822304</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4342437246.734084</v>
+        <v>3895767188.303136</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1463142364613706</v>
+        <v>0.1755858056771496</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02919497015529429</v>
+        <v>0.03279957851161455</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>334</v>
+      </c>
+      <c r="J71" t="n">
+        <v>500</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2110268358.641219</v>
+        <v>1647447232.497061</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1056163668986048</v>
+        <v>0.09828979463926357</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04226408381381172</v>
+        <v>0.03328421982540704</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2159353262.24669</v>
+        <v>3236601470.755864</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08933839486049693</v>
+        <v>0.07479601620442364</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04254411242217281</v>
+        <v>0.03492812391908407</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>48</v>
+      </c>
+      <c r="J73" t="n">
+        <v>491</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3422062209.747322</v>
+        <v>2808758878.641459</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1660654456658575</v>
+        <v>0.1348297625482948</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0315553012741495</v>
+        <v>0.03262350409274899</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>147</v>
+      </c>
+      <c r="J74" t="n">
+        <v>498</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2029893646.896881</v>
+        <v>2052263636.94321</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1467881449891432</v>
+        <v>0.1120742881913804</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03105188744878951</v>
+        <v>0.02404814625418615</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4697052326.537231</v>
+        <v>3292549943.880212</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1067604482593911</v>
+        <v>0.09111336178121654</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02821623062090142</v>
+        <v>0.0316686672390515</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>240</v>
+      </c>
+      <c r="J76" t="n">
+        <v>499</v>
+      </c>
+      <c r="K76" t="n">
+        <v>18.92292264239597</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2100878528.688519</v>
+        <v>1583113028.657426</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1371060606317569</v>
+        <v>0.1651458324117082</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01912586279885161</v>
+        <v>0.02212031541722907</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3197,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4469945311.433567</v>
+        <v>3959776035.660851</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1267815468733137</v>
+        <v>0.1095089112447988</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03641421337031708</v>
+        <v>0.0431345391467663</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>247</v>
+      </c>
+      <c r="J78" t="n">
+        <v>500</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1195283874.613724</v>
+        <v>1581600453.118425</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1111705834816949</v>
+        <v>0.1707440353584991</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03817166474155752</v>
+        <v>0.03291187843051044</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5228051167.562152</v>
+        <v>3637113502.557025</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08476066646814201</v>
+        <v>0.07747507279649453</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03716873277507737</v>
+        <v>0.02396948864883075</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>244</v>
+      </c>
+      <c r="J80" t="n">
+        <v>498</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3154553057.726933</v>
+        <v>4278986845.227736</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1165541876789522</v>
+        <v>0.1186399634577571</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02509056543401826</v>
+        <v>0.02523177131018605</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>234</v>
+      </c>
+      <c r="J81" t="n">
+        <v>500</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3548462315.188758</v>
+        <v>5516336926.557708</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1358213621071294</v>
+        <v>0.1776945491931395</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0274555677306715</v>
+        <v>0.02682600688388044</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>326</v>
+      </c>
+      <c r="J82" t="n">
+        <v>500</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1762806434.120491</v>
+        <v>2450522467.04693</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1417354007532263</v>
+        <v>0.1150119759235438</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03864827158748396</v>
+        <v>0.04307884832107883</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2521872179.228738</v>
+        <v>1815940796.217279</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1040810610801747</v>
+        <v>0.0926383693038956</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03719093411293788</v>
+        <v>0.05189097143374928</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2553475470.359589</v>
+        <v>2668750657.688928</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1482315074442175</v>
+        <v>0.1845130291644795</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03585289460107213</v>
+        <v>0.04955256582677473</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2214276610.213883</v>
+        <v>2649238517.483356</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1328212351666707</v>
+        <v>0.1359102603760697</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0189822850202272</v>
+        <v>0.01780499704213053</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1376111543.934438</v>
+        <v>973985522.0840174</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1690458117184665</v>
+        <v>0.1492722017385301</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03511960424537581</v>
+        <v>0.02906010780520847</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2931460302.881433</v>
+        <v>3021120214.70089</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1433758591298855</v>
+        <v>0.1435696334993276</v>
       </c>
       <c r="G88" t="n">
-        <v>0.028114867176882</v>
+        <v>0.02649754253852409</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>72</v>
+      </c>
+      <c r="J88" t="n">
+        <v>496</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3000570544.117663</v>
+        <v>2430566553.269377</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1165153769704589</v>
+        <v>0.1417433706941913</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03820147488643504</v>
+        <v>0.02565948369574503</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>34</v>
+      </c>
+      <c r="J89" t="n">
+        <v>495</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1575444605.0374</v>
+        <v>1740630792.37545</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1260889449016299</v>
+        <v>0.1134911700970769</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03796153419628867</v>
+        <v>0.03426055476259408</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1290919085.165463</v>
+        <v>1490163888.871917</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1955756531486972</v>
+        <v>0.1836787409795202</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04052743259414336</v>
+        <v>0.04995706457785889</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2299345928.119679</v>
+        <v>2906752029.253605</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09080456771682366</v>
+        <v>0.09308038354562208</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04143053321468367</v>
+        <v>0.04252715995300795</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4846317221.711308</v>
+        <v>4230679469.73836</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1024445917714339</v>
+        <v>0.1167356774836643</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0496579605504086</v>
+        <v>0.0465888675514623</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>240</v>
+      </c>
+      <c r="J93" t="n">
+        <v>500</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1997393351.17659</v>
+        <v>2253863478.458474</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1553358017851819</v>
+        <v>0.1305908557212602</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0294669828907602</v>
+        <v>0.02626520427477884</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2312882419.222328</v>
+        <v>3205484072.459043</v>
       </c>
       <c r="F95" t="n">
-        <v>0.112367560730434</v>
+        <v>0.1261792229525107</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03688450329100473</v>
+        <v>0.04588958205231588</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2193674557.220434</v>
+        <v>2150703853.539198</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1415702111341409</v>
+        <v>0.0986632996921455</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03642541756657322</v>
+        <v>0.04699617376746131</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3979970384.166903</v>
+        <v>4781474929.849837</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1261570592815304</v>
+        <v>0.1768357564214665</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02282801550643207</v>
+        <v>0.02248745123892145</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>260</v>
+      </c>
+      <c r="J97" t="n">
+        <v>499</v>
+      </c>
+      <c r="K97" t="n">
+        <v>25.29087961964759</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2482621819.204158</v>
+        <v>3481791088.795873</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09315056549769229</v>
+        <v>0.09165923032603961</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02401340466359487</v>
+        <v>0.03091810422782838</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>130</v>
+      </c>
+      <c r="J98" t="n">
+        <v>498</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3282814455.502786</v>
+        <v>2945477703.128593</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09468800727575098</v>
+        <v>0.1260090827428592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03023083910930437</v>
+        <v>0.02336020432768638</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3328171271.644885</v>
+        <v>4208677219.590969</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1302751643135298</v>
+        <v>0.1375910469708734</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01697663267971942</v>
+        <v>0.02141323566758915</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>232</v>
+      </c>
+      <c r="J100" t="n">
+        <v>500</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3158207162.433451</v>
+        <v>2943366766.2618</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2021880992963706</v>
+        <v>0.2025390880626414</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04337927420929669</v>
+        <v>0.04723268117948554</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>50</v>
+      </c>
+      <c r="J101" t="n">
+        <v>500</v>
+      </c>
+      <c r="K101" t="n">
+        <v>41.56888403672456</v>
       </c>
     </row>
   </sheetData>
